--- a/forecast_summary_B09L9DY4L1.xlsx
+++ b/forecast_summary_B09L9DY4L1.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,11 @@
           <t>Product Title</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -488,7 +493,7 @@
         <v>-2.616084457729797</v>
       </c>
       <c r="D2" t="n">
-        <v>8.484874895119241</v>
+        <v>8.819995716452702</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -511,6 +516,9 @@
         <is>
           <t>Z690 AERO G DDR4</t>
         </is>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -524,7 +532,7 @@
         <v>-2.741766360635443</v>
       </c>
       <c r="D3" t="n">
-        <v>8.658885794012532</v>
+        <v>8.47320299076163</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -547,6 +555,9 @@
         <is>
           <t>Z690 AERO G DDR4</t>
         </is>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -560,7 +571,7 @@
         <v>-2.417309502919742</v>
       </c>
       <c r="D4" t="n">
-        <v>8.899875052170593</v>
+        <v>7.909080076860559</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -583,6 +594,9 @@
         <is>
           <t>Z690 AERO G DDR4</t>
         </is>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -596,7 +610,7 @@
         <v>-3.228704655967811</v>
       </c>
       <c r="D5" t="n">
-        <v>7.497000397622421</v>
+        <v>6.806262859737438</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -619,6 +633,9 @@
         <is>
           <t>Z690 AERO G DDR4</t>
         </is>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,7 +649,7 @@
         <v>-7.528355153124895</v>
       </c>
       <c r="D6" t="n">
-        <v>3.537164941063448</v>
+        <v>4.439527529931802</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -655,6 +672,9 @@
         <is>
           <t>Z690 AERO G DDR4</t>
         </is>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -668,7 +688,7 @@
         <v>-15.28455638403914</v>
       </c>
       <c r="D7" t="n">
-        <v>-4.108485783094751</v>
+        <v>-3.607186080383877</v>
       </c>
       <c r="E7" t="n">
         <v>6</v>
@@ -691,6 +711,9 @@
         <is>
           <t>Z690 AERO G DDR4</t>
         </is>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -704,7 +727,7 @@
         <v>-22.7142855882768</v>
       </c>
       <c r="D8" t="n">
-        <v>-11.31220386336223</v>
+        <v>-11.64629545272534</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -727,6 +750,9 @@
         <is>
           <t>Z690 AERO G DDR4</t>
         </is>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -740,7 +766,7 @@
         <v>-25.46016955159229</v>
       </c>
       <c r="D9" t="n">
-        <v>-14.75322594325368</v>
+        <v>-13.82036994754504</v>
       </c>
       <c r="E9" t="n">
         <v>6</v>
@@ -763,6 +789,9 @@
         <is>
           <t>Z690 AERO G DDR4</t>
         </is>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -776,7 +805,7 @@
         <v>-23.32986068413262</v>
       </c>
       <c r="D10" t="n">
-        <v>-11.02649131024633</v>
+        <v>-11.26421029749958</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -799,6 +828,9 @@
         <is>
           <t>Z690 AERO G DDR4</t>
         </is>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -812,7 +844,7 @@
         <v>-20.71162441146369</v>
       </c>
       <c r="D11" t="n">
-        <v>-9.065989584650996</v>
+        <v>-9.95041509390636</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -835,6 +867,9 @@
         <is>
           <t>Z690 AERO G DDR4</t>
         </is>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -848,7 +883,7 @@
         <v>-21.44221949097696</v>
       </c>
       <c r="D12" t="n">
-        <v>-10.3697942058899</v>
+        <v>-10.47996139504007</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -871,6 +906,9 @@
         <is>
           <t>Z690 AERO G DDR4</t>
         </is>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -884,7 +922,7 @@
         <v>-23.99732863227631</v>
       </c>
       <c r="D13" t="n">
-        <v>-12.43922751067423</v>
+        <v>-12.65198695455939</v>
       </c>
       <c r="E13" t="n">
         <v>6</v>
@@ -907,6 +945,9 @@
         <is>
           <t>Z690 AERO G DDR4</t>
         </is>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -920,7 +961,7 @@
         <v>-23.13668461195633</v>
       </c>
       <c r="D14" t="n">
-        <v>-12.03131567519165</v>
+        <v>-11.63695077029569</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
@@ -943,6 +984,9 @@
         <is>
           <t>Z690 AERO G DDR4</t>
         </is>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -956,7 +1000,7 @@
         <v>-16.40777924557162</v>
       </c>
       <c r="D15" t="n">
-        <v>-5.691209997792485</v>
+        <v>-4.877716928438684</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
@@ -979,6 +1023,9 @@
         <is>
           <t>Z690 AERO G DDR4</t>
         </is>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -992,7 +1039,7 @@
         <v>-7.608472317784167</v>
       </c>
       <c r="D16" t="n">
-        <v>2.927241607911562</v>
+        <v>3.270581177328716</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
@@ -1015,6 +1062,9 @@
         <is>
           <t>Z690 AERO G DDR4</t>
         </is>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1028,7 +1078,7 @@
         <v>-2.757097039229635</v>
       </c>
       <c r="D17" t="n">
-        <v>8.037638821092445</v>
+        <v>8.46348630470108</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
@@ -1051,6 +1101,9 @@
         <is>
           <t>Z690 AERO G DDR4</t>
         </is>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1064,7 +1117,7 @@
         <v>-3.398588319413267</v>
       </c>
       <c r="D18" t="n">
-        <v>7.084599755621767</v>
+        <v>7.927200015171176</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
@@ -1087,6 +1140,9 @@
         <is>
           <t>Z690 AERO G DDR4</t>
         </is>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1100,7 +1156,7 @@
         <v>-5.449614662183349</v>
       </c>
       <c r="D19" t="n">
-        <v>5.267817304933814</v>
+        <v>6.039835062354324</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -1123,6 +1179,9 @@
         <is>
           <t>Z690 AERO G DDR4</t>
         </is>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1136,7 +1195,7 @@
         <v>-4.771015087166108</v>
       </c>
       <c r="D20" t="n">
-        <v>5.265408164618929</v>
+        <v>6.589114265238309</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
@@ -1159,6 +1218,9 @@
         <is>
           <t>Z690 AERO G DDR4</t>
         </is>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1172,7 +1234,7 @@
         <v>-2.175943582098793</v>
       </c>
       <c r="D21" t="n">
-        <v>9.294243918188203</v>
+        <v>8.185047177698229</v>
       </c>
       <c r="E21" t="n">
         <v>4</v>
@@ -1195,6 +1257,9 @@
         <is>
           <t>Z690 AERO G DDR4</t>
         </is>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
